--- a/10_fibrils.xlsx
+++ b/10_fibrils.xlsx
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +422,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="G11:I27"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,10 +439,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>2.2869999999999999E-8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.2600000000000001E-8</v>
       </c>
     </row>
